--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>529298.3455739979</v>
+        <v>519571.8486285653</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7702203.869984743</v>
+        <v>7642951.086692357</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>388.2474135039324</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.09470047395167</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>98.94574135710867</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -832,10 +834,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>54.68688746169101</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.37639706403837</v>
+        <v>393.9470907639069</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>28.0149076090959</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1135,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>403.2658873081456</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>14.52815174929216</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>28.0149076090959</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1385,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.097629902943704</v>
       </c>
       <c r="Y11" t="n">
-        <v>106.6442711170352</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059085</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>388.3430365919143</v>
       </c>
       <c r="C14" t="n">
-        <v>393.9470907639073</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.4216953850578</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1847,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>105.3369947405776</v>
+        <v>397.7294175190401</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1904,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>23.76198261973484</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2068,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>47.6079116470228</v>
       </c>
       <c r="D20" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2096,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2244,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>102.5987838459667</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2327,7 +2329,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>59.82422708687625</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2375,10 +2377,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>369.2659961340943</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2476,13 +2478,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>79.75852274933938</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>65.31383608752344</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>403.8845522234252</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>205.2934183826711</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>68.10104966859264</v>
+        <v>29.06736062834941</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2776,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>47.64512042712314</v>
+        <v>316.0695590374758</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>61.2952647494452</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2962,13 +2964,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>176.2550321649798</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>123.8394724344234</v>
+        <v>37.78331767565417</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>29.06736062834963</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.31383608752344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,10 +3277,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3427,22 +3429,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128935</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3503,10 +3505,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>363.9585094926619</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3563,7 +3565,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>71.36683641495289</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>112.4348987504504</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -3715,19 +3717,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>87.45337212097884</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3749,10 +3751,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>378.9769832968749</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3898,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>140.548818152191</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>70.36042284486155</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>206.9078993907067</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
@@ -4028,7 +4030,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -4043,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>42.43741174507669</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>65.42520756919141</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4198,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>902.9139097323135</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C2" t="n">
-        <v>492.7893190455836</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D2" t="n">
-        <v>88.32538913864414</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1688317915616</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L2" t="n">
-        <v>497.1688317915616</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="M2" t="n">
         <v>1014.011766457887</v>
@@ -4367,13 +4369,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1303.850582784223</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>902.9139097323135</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L3" t="n">
-        <v>158.3214934345131</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M3" t="n">
-        <v>675.1644281008383</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N3" t="n">
-        <v>675.1644281008383</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767164</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4443,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.3847151048558</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="C4" t="n">
-        <v>749.2913426665723</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>589.7966979894823</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>428.8858828578017</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>264.254756968393</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>97.00436589393641</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="X4" t="n">
-        <v>1332.820120110135</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="Y4" t="n">
-        <v>1108.0844214989</v>
+        <v>1059.950756782464</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1265.081890330439</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="C5" t="n">
-        <v>854.9572996437093</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D5" t="n">
-        <v>450.4933697367699</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E5" t="n">
-        <v>450.4933697367699</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F5" t="n">
         <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="L5" t="n">
-        <v>1329.636426430007</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="M5" t="n">
-        <v>1846.479361096332</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N5" t="n">
-        <v>1846.479361096332</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O5" t="n">
         <v>2047.697635790537</v>
@@ -4607,10 +4609,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1687.610883649055</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1286.674210597145</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4643,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>537.7254774811262</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>1054.568412147451</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147451</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>503.2668642681101</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>503.2668642681101</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>503.2668642681101</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>503.2668642681101</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
         <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H7" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>503.2668642681101</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>503.2668642681101</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.033101815613</v>
+        <v>465.1682704936306</v>
       </c>
       <c r="C8" t="n">
-        <v>1267.908511128883</v>
+        <v>465.1682704936306</v>
       </c>
       <c r="D8" t="n">
-        <v>863.4445812219433</v>
+        <v>465.1682704936306</v>
       </c>
       <c r="E8" t="n">
-        <v>449.10436573884</v>
+        <v>465.1682704936306</v>
       </c>
       <c r="F8" t="n">
-        <v>449.10436573884</v>
+        <v>465.1682704936306</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>56.43998638646281</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L8" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M8" t="n">
-        <v>537.7254774811266</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N8" t="n">
-        <v>1054.568412147452</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O8" t="n">
-        <v>1571.411346813777</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4832,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022951</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581201</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581201</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581201</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L9" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M9" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N9" t="n">
-        <v>1054.568412147452</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P9" t="n">
         <v>2088.254281480102</v>
@@ -4917,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>503.2668642681101</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>503.2668642681101</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>503.2668642681101</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>503.2668642681101</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
         <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H10" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>503.2668642681101</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y10" t="n">
-        <v>503.2668642681101</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1596.772494638468</v>
+        <v>1275.987711690022</v>
       </c>
       <c r="C11" t="n">
-        <v>1596.772494638468</v>
+        <v>1275.987711690022</v>
       </c>
       <c r="D11" t="n">
-        <v>1596.772494638468</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="E11" t="n">
-        <v>1182.432279155364</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F11" t="n">
-        <v>761.4018671090519</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G11" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L11" t="n">
-        <v>558.6080202959273</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.450954962253</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N11" t="n">
-        <v>1592.293889628578</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O11" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P11" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q11" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
@@ -5078,13 +5080,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W11" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X11" t="n">
-        <v>1704.493980615271</v>
+        <v>2087.145564406421</v>
       </c>
       <c r="Y11" t="n">
-        <v>1596.772494638468</v>
+        <v>1686.208891354511</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G12" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L12" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N12" t="n">
+        <v>1075.450954962252</v>
+      </c>
+      <c r="O12" t="n">
         <v>1592.293889628578</v>
       </c>
-      <c r="O12" t="n">
-        <v>2058.694762117472</v>
-      </c>
       <c r="P12" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q12" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5154,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5221,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960205</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C14" t="n">
-        <v>1690.327927173125</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D14" t="n">
         <v>1285.863997266186</v>
@@ -5267,37 +5269,37 @@
         <v>450.4933697367699</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
@@ -5349,28 +5351,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L15" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M15" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N15" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O15" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P15" t="n">
         <v>2088.254281480102</v>
@@ -5425,19 +5427,19 @@
         <v>474.9689777942758</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H16" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5458,25 +5460,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X16" t="n">
-        <v>1485.891263925851</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y16" t="n">
         <v>1318.798642324783</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>545.4263504732731</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="C17" t="n">
-        <v>545.4263504732731</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="D17" t="n">
-        <v>439.0253456848109</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E17" t="n">
-        <v>439.0253456848109</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F17" t="n">
-        <v>439.0253456848109</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G17" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H17" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N17" t="n">
         <v>1592.293889628578</v>
       </c>
       <c r="O17" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q17" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T17" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U17" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V17" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W17" t="n">
-        <v>1347.00642135623</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X17" t="n">
-        <v>946.3630235251831</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="Y17" t="n">
-        <v>545.4263504732731</v>
+        <v>1687.610883649054</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L18" t="n">
-        <v>537.7254774811262</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M18" t="n">
-        <v>1054.568412147451</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="N18" t="n">
-        <v>1571.411346813777</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="O18" t="n">
-        <v>2088.254281480102</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q18" t="n">
         <v>2088.254281480102</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>215.3745434703422</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C19" t="n">
-        <v>215.3745434703422</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D19" t="n">
-        <v>215.3745434703422</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E19" t="n">
-        <v>215.3745434703422</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F19" t="n">
-        <v>215.3745434703422</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G19" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5698,25 +5700,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1145.223475107064</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>1145.223475107064</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V19" t="n">
-        <v>1145.223475107064</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W19" t="n">
-        <v>866.1538106159385</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X19" t="n">
-        <v>627.8099484756219</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>403.0742498643866</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.262653899312</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I20" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L20" t="n">
-        <v>1598.180070079655</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M20" t="n">
-        <v>2374.498661071409</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N20" t="n">
-        <v>3127.679677710027</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127132</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P20" t="n">
-        <v>4300.467232046283</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q20" t="n">
-        <v>4621.628238841575</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
-        <v>4662.18488453114</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>1738.416726816582</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>772.0745395771571</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>638.0794683261029</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>521.1823105454953</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>400.6894945378233</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>291.7296147203278</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>184.7395020346666</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>113.9922890703826</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
-        <v>2139.732893541123</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S21" t="n">
-        <v>2031.742883655432</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T21" t="n">
-        <v>1872.40101984244</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1675.050208980659</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1461.338681973692</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1248.105513710021</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
-        <v>1071.779531848914</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>912.3775722127438</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182.57754799176</v>
+        <v>316.4935932658317</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>145.4002208275482</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.642594311473</v>
+        <v>967.2728604114279</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.012952997039</v>
+        <v>728.9289982711114</v>
       </c>
       <c r="Y22" t="n">
-        <v>1370.277254385804</v>
+        <v>504.1932996598761</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
         <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>404.1521950629049</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I23" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J23" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
       </c>
       <c r="M23" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.498661071408</v>
       </c>
       <c r="N23" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710026</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P23" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046282</v>
       </c>
       <c r="Q23" t="n">
         <v>4621.628238841575</v>
@@ -6023,16 +6025,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4047.636833531609</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>3458.672769375206</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>4332.330861486824</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O24" t="n">
-        <v>4632.62536516851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P24" t="n">
-        <v>4632.62536516851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
-        <v>4632.62536516851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.1375248150675</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C25" t="n">
-        <v>931.1375248150675</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D25" t="n">
-        <v>771.6428801379775</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E25" t="n">
         <v>691.0787157447054</v>
@@ -6172,25 +6174,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U25" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V25" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W25" t="n">
-        <v>1343.572929820347</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="X25" t="n">
-        <v>1343.572929820347</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="Y25" t="n">
-        <v>1118.837231209112</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2237.518802661711</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C26" t="n">
-        <v>1827.394211974981</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D26" t="n">
-        <v>1422.930282068041</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E26" t="n">
-        <v>1008.590066584938</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F26" t="n">
-        <v>587.5596545386256</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G26" t="n">
-        <v>179.5954603735497</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4182.917908737509</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V26" t="n">
-        <v>3833.080354073989</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W26" t="n">
-        <v>3449.320053209158</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X26" t="n">
-        <v>3048.67665537811</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y26" t="n">
-        <v>2647.7399823262</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="27">
@@ -6312,10 +6314,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>588.462840695405</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C28" t="n">
-        <v>417.3694682571215</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D28" t="n">
-        <v>257.8748235800315</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E28" t="n">
-        <v>257.8748235800315</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1553.853655252288</v>
+        <v>4632.823914199474</v>
       </c>
       <c r="S28" t="n">
-        <v>1553.853655252288</v>
+        <v>4446.432146079384</v>
       </c>
       <c r="T28" t="n">
-        <v>1553.853655252288</v>
+        <v>4206.883407056085</v>
       </c>
       <c r="U28" t="n">
-        <v>1553.853655252288</v>
+        <v>3924.08525960221</v>
       </c>
       <c r="V28" t="n">
-        <v>1279.96791019181</v>
+        <v>3650.199514541731</v>
       </c>
       <c r="W28" t="n">
-        <v>1000.898245700685</v>
+        <v>3371.129850050606</v>
       </c>
       <c r="X28" t="n">
-        <v>1000.898245700685</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y28" t="n">
-        <v>776.1625470894494</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="30">
@@ -6543,16 +6545,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>549.0499539559215</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>749.3736558270855</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="C31" t="n">
-        <v>578.280283388802</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="D31" t="n">
-        <v>418.7856387117121</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E31" t="n">
-        <v>257.8748235800315</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6646,25 +6648,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U31" t="n">
-        <v>1339.844446857597</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V31" t="n">
-        <v>1339.844446857597</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="W31" t="n">
-        <v>1339.844446857597</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="X31" t="n">
-        <v>1161.809060832365</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="Y31" t="n">
-        <v>937.0733622211299</v>
+        <v>913.9039397142094</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6700,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6725,13 +6727,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4526.90380932524</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U32" t="n">
-        <v>4269.84331758475</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V32" t="n">
         <v>4144.752941388363</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6880,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1593.281623979807</v>
       </c>
       <c r="S34" t="n">
-        <v>1436.250826191383</v>
+        <v>1406.889855859717</v>
       </c>
       <c r="T34" t="n">
-        <v>1436.250826191383</v>
+        <v>1167.341116836419</v>
       </c>
       <c r="U34" t="n">
-        <v>1436.250826191383</v>
+        <v>884.5429693825431</v>
       </c>
       <c r="V34" t="n">
-        <v>1436.250826191383</v>
+        <v>610.6572243220651</v>
       </c>
       <c r="W34" t="n">
-        <v>1436.250826191383</v>
+        <v>331.5875598309394</v>
       </c>
       <c r="X34" t="n">
-        <v>1436.250826191383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y34" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6925,7 @@
         <v>873.3089913790386</v>
       </c>
       <c r="F35" t="n">
-        <v>501.9719817977906</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G35" t="n">
         <v>93.2436976906228</v>
@@ -6938,7 +6940,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4222.119838211426</v>
+        <v>3458.450207833939</v>
       </c>
       <c r="C37" t="n">
-        <v>4051.026465773143</v>
+        <v>3287.356835395656</v>
       </c>
       <c r="D37" t="n">
-        <v>3891.531821096053</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E37" t="n">
-        <v>3730.621005964372</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F37" t="n">
-        <v>3565.989880074963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G37" t="n">
-        <v>3398.739489000507</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I37" t="n">
         <v>3132.785987910289</v>
@@ -7129,16 +7131,16 @@
         <v>4662.18488453114</v>
       </c>
       <c r="V37" t="n">
-        <v>4662.18488453114</v>
+        <v>4388.299139470661</v>
       </c>
       <c r="W37" t="n">
-        <v>4662.18488453114</v>
+        <v>4109.229474979536</v>
       </c>
       <c r="X37" t="n">
-        <v>4634.555243216706</v>
+        <v>3870.885612839219</v>
       </c>
       <c r="Y37" t="n">
-        <v>4409.819544605471</v>
+        <v>3646.149914227984</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="D38" t="n">
         <v>1734.602869382415</v>
@@ -7172,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7260,19 +7262,19 @@
         <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="N39" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O39" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P39" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>640.0181946537314</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>640.0181946537314</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>640.0181946537314</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>640.0181946537314</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1196.702087168085</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U40" t="n">
-        <v>913.9039397142094</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="V40" t="n">
-        <v>640.0181946537314</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W40" t="n">
-        <v>640.0181946537314</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X40" t="n">
-        <v>640.0181946537314</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y40" t="n">
-        <v>640.0181946537314</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>873.3089913790386</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
         <v>490.5039577458317</v>
@@ -7436,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M42" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1153.452678737507</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C43" t="n">
-        <v>1011.484175553476</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D43" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7594,25 +7596,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1436.250826191383</v>
+        <v>1551.571460124744</v>
       </c>
       <c r="U43" t="n">
-        <v>1153.452678737507</v>
+        <v>1268.773312670868</v>
       </c>
       <c r="V43" t="n">
-        <v>1153.452678737507</v>
+        <v>994.8875676103903</v>
       </c>
       <c r="W43" t="n">
-        <v>1153.452678737507</v>
+        <v>715.8179031192647</v>
       </c>
       <c r="X43" t="n">
-        <v>1153.452678737507</v>
+        <v>477.4740409789481</v>
       </c>
       <c r="Y43" t="n">
-        <v>1153.452678737507</v>
+        <v>252.7383423677128</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>561.671461174315</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>561.671461174315</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>561.671461174315</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E44" t="n">
-        <v>561.671461174315</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F44" t="n">
-        <v>352.673583001884</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G44" t="n">
-        <v>352.673583001884</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>558.6080202959273</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>558.6080202959273</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1075.450954962253</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>1592.293889628578</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>1952.973206274203</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>1952.973206274203</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>1695.912714533713</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>1346.075159870194</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>962.3148590053625</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>561.671461174315</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>561.671461174315</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161366</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650824</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844747</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768027</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593072</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>133.260889973646</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936203</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960205</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>41.76508562960205</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>41.76508562960205</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>558.6080202959273</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>1075.450954962253</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>1592.293889628578</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2058.694762117472</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2058.694762117472</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912672</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649001</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517233</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>224.1971997769844</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="C46" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>224.1971997769844</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>158.1111315252759</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1299.499495805762</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1059.950756782464</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U46" t="n">
-        <v>777.1526093285881</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V46" t="n">
-        <v>503.2668642681101</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W46" t="n">
-        <v>224.1971997769844</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X46" t="n">
-        <v>224.1971997769844</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.1971997769844</v>
+        <v>323.8094765544416</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>549.1401736751965</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
@@ -8058,25 +8060,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>173.8482690683347</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>68.26591628750379</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8213,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>549.1401736751963</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O5" t="n">
-        <v>296.4405581451824</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8295,28 +8297,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>557.0846165901664</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>63.89502594283636</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8456,25 +8458,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M8" t="n">
-        <v>594.2603172363632</v>
+        <v>553.2940084590247</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,19 +8537,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N9" t="n">
-        <v>554.1634861730678</v>
+        <v>554.1634861730674</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8693,16 +8695,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O11" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
@@ -8711,7 +8713,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,25 +8774,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O12" t="n">
-        <v>528.8634714130247</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,16 +8932,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>596.4554908421622</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O14" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
@@ -8948,7 +8950,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,19 +9011,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>557.0846165901664</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P15" t="n">
-        <v>555.229727782121</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9167,16 +9169,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O17" t="n">
-        <v>553.1935596277625</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
@@ -9185,7 +9187,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>557.0846165901664</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>529.1545888121299</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>590.1064824525346</v>
       </c>
       <c r="L20" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M20" t="n">
-        <v>877.4504173780092</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N20" t="n">
-        <v>853.701196452193</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,16 +9488,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9729,7 +9731,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>361.0792604966529</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9738,7 +9740,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K26" t="n">
         <v>632.7318453389136</v>
@@ -9896,7 +9898,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10133,7 +10135,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,19 +10193,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M30" t="n">
-        <v>70.76403821083073</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K32" t="n">
         <v>632.7318453389136</v>
@@ -10364,7 +10366,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P32" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
@@ -10586,7 +10588,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
         <v>815.2746908024792</v>
@@ -10604,7 +10606,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,7 +10910,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>448.4101882023532</v>
+        <v>418.5520878360603</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
@@ -10923,7 +10925,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>594.6194560602019</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>525.3716274158285</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>17.77593127593013</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>364.1021128543206</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22607,13 +22609,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>70.43669735679198</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22720,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>93.42449318090689</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -22768,10 +22770,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22781,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>384.7425708038062</v>
+        <v>12.17187710393767</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22847,10 +22849,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22939,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>134.9699070214187</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23021,22 +23023,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>1.375113957950532</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>293.271260649267</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23072,16 +23074,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -23176,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>134.9699070214187</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23318,13 +23320,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>395.5393339497933</v>
       </c>
       <c r="Y11" t="n">
-        <v>290.2830352043556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300493</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>17.7759312759303</v>
       </c>
       <c r="C14" t="n">
-        <v>12.07625401595521</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -23716,10 +23718,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.06664624006515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,22 +23737,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>295.0822958672924</v>
+        <v>2.689873088829984</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -23792,13 +23794,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23902,10 +23904,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>141.8159045439772</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23938,16 +23940,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.893130557884632</v>
       </c>
     </row>
     <row r="20">
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>358.4154331328398</v>
       </c>
       <c r="D20" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>55.30091438435237</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -24187,10 +24189,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24215,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24263,10 +24265,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>10.65670172208877</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>79.54318423102434</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -24424,13 +24426,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>157.1745055375995</v>
       </c>
     </row>
     <row r="26">
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7564490426709085</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>16.31894147276171</v>
+        <v>55.35263051300494</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>356.995880838973</v>
+        <v>88.57144222862036</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>96.60443348087388</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>59.70539135393363</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>222.4997066824607</v>
+        <v>308.5558614412299</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>55.35263051300471</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>157.1745055375995</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25163,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>49.19646844041381</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>4.8745592198064</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176241</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25391,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>36.46078111520814</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25451,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>308.5558614412302</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25558,16 +25560,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>50.54991588006429</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>192.5167938583583</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25637,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>28.83362056170967</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>166.7928287882034</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>209.9122085351426</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>126.945026968824</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26038,10 +26040,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>82.68617307340649</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>532869.1515236881</v>
+        <v>532869.151523688</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>532869.151523688</v>
+        <v>532869.1515236879</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>532869.1515236881</v>
+        <v>532869.1515236879</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>532869.151523688</v>
+        <v>532869.1515236879</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>532869.1515236881</v>
+        <v>532869.1515236879</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>532869.1515236881</v>
+        <v>532869.1515236879</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>811261.0815284268</v>
+        <v>532869.1515236879</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>811261.0815284268</v>
+        <v>811261.0815284266</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>811261.0815284268</v>
+        <v>811261.0815284267</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>811261.0815284267</v>
+        <v>811261.0815284266</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>811261.0815284267</v>
+        <v>811261.0815284268</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>811261.0815284267</v>
+        <v>811261.0815284268</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>811261.0815284267</v>
+        <v>811261.0815284268</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>811261.0815284267</v>
+        <v>811261.0815284268</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>532869.151523688</v>
+        <v>811261.081528427</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>142694.2606395789</v>
       </c>
       <c r="C2" t="n">
-        <v>142694.2606395788</v>
+        <v>142694.2606395789</v>
       </c>
       <c r="D2" t="n">
         <v>142694.2606395789</v>
@@ -26329,10 +26331,10 @@
         <v>142694.2606395789</v>
       </c>
       <c r="H2" t="n">
-        <v>217236.5006513203</v>
+        <v>142694.2606395789</v>
       </c>
       <c r="I2" t="n">
-        <v>217236.5006513203</v>
+        <v>217236.5006513204</v>
       </c>
       <c r="J2" t="n">
         <v>217236.5006513203</v>
@@ -26350,10 +26352,10 @@
         <v>217236.5006513203</v>
       </c>
       <c r="O2" t="n">
-        <v>217236.5006513203</v>
+        <v>217236.5006513204</v>
       </c>
       <c r="P2" t="n">
-        <v>142694.2606395789</v>
+        <v>217236.5006513204</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>173617.4105196494</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>171115.5499734838</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26433,7 +26435,7 @@
         <v>10090.76744434242</v>
       </c>
       <c r="H4" t="n">
-        <v>15465.37373706398</v>
+        <v>10090.76744434242</v>
       </c>
       <c r="I4" t="n">
         <v>15465.37373706398</v>
@@ -26457,7 +26459,7 @@
         <v>15465.37373706398</v>
       </c>
       <c r="P4" t="n">
-        <v>10090.76744434242</v>
+        <v>15465.37373706398</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26485,7 +26487,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
-        <v>70865.21024487332</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="I5" t="n">
         <v>70865.21024487332</v>
@@ -26509,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-107721.0817763752</v>
+        <v>-107721.0817763751</v>
       </c>
       <c r="C6" t="n">
-        <v>67234.42811673885</v>
+        <v>67234.42811673893</v>
       </c>
       <c r="D6" t="n">
-        <v>67234.42811673888</v>
+        <v>67234.42811673893</v>
       </c>
       <c r="E6" t="n">
         <v>100862.0281167389</v>
@@ -26537,19 +26539,19 @@
         <v>100862.0281167389</v>
       </c>
       <c r="H6" t="n">
-        <v>-42711.49385026634</v>
+        <v>100862.0281167389</v>
       </c>
       <c r="I6" t="n">
-        <v>130905.916669383</v>
+        <v>-40209.63330410069</v>
       </c>
       <c r="J6" t="n">
-        <v>-5688.884136511952</v>
+        <v>-5688.884136511915</v>
       </c>
       <c r="K6" t="n">
         <v>130905.916669383</v>
       </c>
       <c r="L6" t="n">
-        <v>130905.916669383</v>
+        <v>130905.9166693831</v>
       </c>
       <c r="M6" t="n">
         <v>130905.916669383</v>
@@ -26561,7 +26563,7 @@
         <v>130905.916669383</v>
       </c>
       <c r="P6" t="n">
-        <v>100862.0281167389</v>
+        <v>130905.916669383</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
-        <v>1165.546221132785</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="I4" t="n">
         <v>1165.546221132785</v>
@@ -26829,7 +26831,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>117.7337452574857</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>10.70163254908636</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34933,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O5" t="n">
-        <v>203.2507825193993</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>10.70163254908636</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35176,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M8" t="n">
-        <v>500.9700927793178</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N9" t="n">
-        <v>500.9700927793178</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35413,16 +35415,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O11" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O12" t="n">
-        <v>471.1119924130247</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O14" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P15" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35887,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O17" t="n">
-        <v>460.0037840019794</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.9700927793173</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>474.8949538093261</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="L20" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M20" t="n">
-        <v>784.1601929209637</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955737</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36449,7 +36451,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>303.3277814966529</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K26" t="n">
         <v>543.5954556656965</v>
@@ -36616,7 +36618,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M30" t="n">
-        <v>13.19975447241331</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K32" t="n">
         <v>543.5954556656965</v>
@@ -37084,7 +37086,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P32" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
@@ -37306,7 +37308,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
         <v>719.7892927396343</v>
@@ -37324,7 +37326,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37630,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>390.8459044639358</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>500.9700927793177</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>471.1119924130247</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>29.85810036629282</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>519571.8486285653</v>
+        <v>515338.9761048954</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.281621778</v>
+        <v>7765049.281621777</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.756951109</v>
+        <v>6187346.756951108</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>388.2474135039324</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>62.62271064857725</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>98.94574135710867</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393.9470907639069</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>186.7734523820152</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>14.52815174929216</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>202.1729592476901</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>119.5236191444598</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.032979117525</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.097629902943704</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>388.3430365919143</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>170.9324381922167</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>397.7294175190401</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1858,7 +1858,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>175.9766892360284</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>47.6079116470228</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>123.006290546766</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>102.5987838459667</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>29.06736062834933</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>59.82422708687625</v>
+        <v>413.7369107533264</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>65.31383608752344</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>205.2934183826711</v>
+        <v>85.2997057160983</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>29.06736062834941</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>29.06736062834964</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>316.0695590374758</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>61.2952647494452</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3009,16 +3009,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>37.78331767565417</v>
+        <v>243.833185100996</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>29.06736062834963</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3331,7 +3331,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>208.642724780751</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>153.0251390105127</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3505,16 +3505,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>363.9585094926619</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>87.45337212097884</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3805,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>370.9729458835154</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>70.36042284486155</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3991,13 +3991,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>245.2379843596723</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4137,7 +4137,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>42.43741174507669</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>199.9194869883087</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.033101815612</v>
+        <v>919.6088695046626</v>
       </c>
       <c r="C2" t="n">
-        <v>1285.863997266186</v>
+        <v>509.4842788179327</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.863997266186</v>
+        <v>105.0203489109932</v>
       </c>
       <c r="E2" t="n">
-        <v>871.5237817830823</v>
+        <v>105.0203489109932</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>105.0203489109932</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>497.1688317915614</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>1530.854701124212</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.830049169152</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960204</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.008892784821</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.851827451147</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4445,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1059.950756782464</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>1059.950756782464</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V4" t="n">
-        <v>1059.950756782464</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W4" t="n">
-        <v>1059.950756782464</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X4" t="n">
-        <v>1059.950756782464</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y4" t="n">
-        <v>1059.950756782464</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1690.327927173125</v>
+        <v>866.2298917994352</v>
       </c>
       <c r="C5" t="n">
-        <v>1690.327927173125</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.863997266186</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1688317915614</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>497.1688317915614</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1530.854701124212</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4597,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1677.387744515835</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1677.387744515835</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1677.387744515835</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1677.387744515835</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>1276.451071463925</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
         <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
+        <v>497.5713418949007</v>
+      </c>
+      <c r="M6" t="n">
         <v>1014.414276561226</v>
       </c>
-      <c r="M6" t="n">
-        <v>1531.257211227551</v>
-      </c>
       <c r="N6" t="n">
-        <v>1541.851827451147</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="O6" t="n">
         <v>1541.851827451147</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>465.1682704936306</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="C8" t="n">
-        <v>465.1682704936306</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D8" t="n">
-        <v>465.1682704936306</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E8" t="n">
-        <v>465.1682704936306</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F8" t="n">
-        <v>465.1682704936306</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G8" t="n">
-        <v>56.43998638646281</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959272</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="M8" t="n">
-        <v>1014.011766457887</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4837,19 +4837,19 @@
         <v>1866.047797426961</v>
       </c>
       <c r="U8" t="n">
-        <v>1608.987305686471</v>
+        <v>1661.832687075759</v>
       </c>
       <c r="V8" t="n">
-        <v>1259.149751022951</v>
+        <v>1661.832687075759</v>
       </c>
       <c r="W8" t="n">
-        <v>875.3894501581201</v>
+        <v>1278.072386210928</v>
       </c>
       <c r="X8" t="n">
-        <v>875.3894501581201</v>
+        <v>1278.072386210928</v>
       </c>
       <c r="Y8" t="n">
-        <v>875.3894501581201</v>
+        <v>877.1357131590178</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959272</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1075.450954962252</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.254281480102</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2073.914533474168</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4989,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.163982250452</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W10" t="n">
-        <v>1571.163982250452</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="X10" t="n">
-        <v>1543.534340936018</v>
+        <v>350.1957204523937</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.798642324783</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1275.987711690022</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C11" t="n">
-        <v>1275.987711690022</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D11" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E11" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F11" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960203</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="L11" t="n">
-        <v>497.1688317915614</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.011766457887</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N11" t="n">
-        <v>1530.854701124212</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O11" t="n">
-        <v>2047.697635790537</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
@@ -5071,22 +5071,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1657.933677106229</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1657.933677106229</v>
       </c>
       <c r="X11" t="n">
-        <v>2087.145564406421</v>
+        <v>1257.290279275181</v>
       </c>
       <c r="Y11" t="n">
-        <v>1686.208891354511</v>
+        <v>856.3536062232714</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L12" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M12" t="n">
-        <v>558.6080202959272</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.450954962252</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O12" t="n">
-        <v>1592.293889628578</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5156,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5229,22 +5229,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1571.163982250452</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U13" t="n">
-        <v>1571.163982250452</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V13" t="n">
-        <v>1571.163982250452</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W13" t="n">
-        <v>1571.163982250452</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X13" t="n">
-        <v>1543.534340936018</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1695.988587952916</v>
+        <v>946.3630235251831</v>
       </c>
       <c r="C14" t="n">
-        <v>1285.863997266186</v>
+        <v>946.3630235251831</v>
       </c>
       <c r="D14" t="n">
-        <v>1285.863997266186</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E14" t="n">
-        <v>871.5237817830823</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F14" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960203</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L14" t="n">
-        <v>537.7254774811263</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M14" t="n">
-        <v>1054.568412147451</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N14" t="n">
-        <v>1571.411346813777</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O14" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>946.3630235251831</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.254281480102</v>
+        <v>946.3630235251831</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>537.7254774811263</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M15" t="n">
-        <v>1054.568412147451</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N15" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O15" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5466,22 +5466,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U16" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V16" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X16" t="n">
-        <v>1543.534340936018</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y16" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1687.610883649054</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="C17" t="n">
-        <v>1687.610883649054</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D17" t="n">
-        <v>1285.863997266186</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E17" t="n">
-        <v>871.5237817830823</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F17" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959272</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962252</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O17" t="n">
         <v>2088.254281480102</v>
@@ -5545,22 +5545,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1688.293565875417</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>1688.293565875417</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>1688.293565875417</v>
       </c>
       <c r="X17" t="n">
-        <v>1687.610883649054</v>
+        <v>1688.293565875417</v>
       </c>
       <c r="Y17" t="n">
-        <v>1687.610883649054</v>
+        <v>1287.356892823507</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>234.5779431922353</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M18" t="n">
-        <v>234.5779431922353</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N18" t="n">
-        <v>751.4208778585604</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O18" t="n">
-        <v>1268.263812524885</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P18" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5718,7 +5718,7 @@
         <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1738.416726816582</v>
+        <v>872.9200883626444</v>
       </c>
       <c r="C20" t="n">
-        <v>1690.327927173125</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D20" t="n">
-        <v>1285.863997266186</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E20" t="n">
-        <v>871.5237817830823</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F20" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>537.7254774811263</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L20" t="n">
-        <v>1054.568412147451</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M20" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N20" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O20" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P20" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U20" t="n">
-        <v>2088.254281480102</v>
+        <v>1606.517943890995</v>
       </c>
       <c r="V20" t="n">
-        <v>1738.416726816582</v>
+        <v>1256.680389227476</v>
       </c>
       <c r="W20" t="n">
-        <v>1738.416726816582</v>
+        <v>872.9200883626444</v>
       </c>
       <c r="X20" t="n">
-        <v>1738.416726816582</v>
+        <v>872.9200883626444</v>
       </c>
       <c r="Y20" t="n">
-        <v>1738.416726816582</v>
+        <v>872.9200883626444</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>41.76508562960203</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M21" t="n">
-        <v>558.6080202959272</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N21" t="n">
-        <v>1075.450954962252</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O21" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P21" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>316.4935932658317</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>145.4002208275482</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
         <v>470.2970630371111</v>
@@ -5934,28 +5934,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T22" t="n">
-        <v>1246.342524902554</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U22" t="n">
-        <v>1246.342524902554</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V22" t="n">
-        <v>1246.342524902554</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W22" t="n">
-        <v>967.2728604114279</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X22" t="n">
-        <v>728.9289982711114</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y22" t="n">
-        <v>504.1932996598761</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F23" t="n">
         <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629049</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
       </c>
       <c r="M23" t="n">
-        <v>2374.498661071408</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N23" t="n">
-        <v>3127.679677710026</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
-        <v>4300.467232046282</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q23" t="n">
         <v>4621.628238841575</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6174,25 +6174,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1436.250826191383</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>1436.250826191383</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>1436.250826191383</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>1436.250826191383</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2359.298219196301</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.173628509571</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D26" t="n">
-        <v>1544.709698602632</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E26" t="n">
-        <v>1130.369483119528</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F26" t="n">
-        <v>709.339071073216</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G26" t="n">
-        <v>300.6107869660482</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6256,22 +6256,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U26" t="n">
-        <v>4304.697325272099</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V26" t="n">
-        <v>3954.85977060858</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W26" t="n">
-        <v>3571.099469743748</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X26" t="n">
-        <v>3170.456071912701</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y26" t="n">
-        <v>2769.519398860791</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4632.823914199474</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4446.432146079384</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T28" t="n">
-        <v>4206.883407056085</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U28" t="n">
-        <v>3924.08525960221</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V28" t="n">
-        <v>3650.199514541731</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W28" t="n">
-        <v>3371.129850050606</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X28" t="n">
-        <v>3132.785987910289</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="Y28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2459.725286714852</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>2049.600696028122</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1645.136766121183</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>1230.796550638079</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>809.7661385917668</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
         <v>490.5039577458317</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U29" t="n">
-        <v>4405.12439279065</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V29" t="n">
-        <v>4055.286838127131</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3671.526537262299</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>3270.883139431251</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2869.946466379341</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>423.0977207349383</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>1266.074801429505</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>913.9039397142094</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>913.9039397142094</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6648,25 +6648,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>913.9039397142094</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>913.9039397142094</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>913.9039397142094</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>913.9039397142094</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>913.9039397142094</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674168</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4182.917908737509</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6785,16 +6785,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P33" t="n">
         <v>2139.732893541123</v>
@@ -6882,25 +6882,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1593.281623979807</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1406.889855859717</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1167.341116836419</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>884.5429693825431</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>610.6572243220651</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>331.5875598309394</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
         <v>93.2436976906228</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6940,7 +6940,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6970,19 +6970,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3458.450207833939</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>3287.356835395656</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>4388.299139470661</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>4109.229474979536</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>3870.885612839219</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>3646.149914227984</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7153,13 +7153,13 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2102.237727455811</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F38" t="n">
         <v>899.2322418529996</v>
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>1402.950983437843</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>1760.328909494509</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N39" t="n">
-        <v>1760.328909494509</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O39" t="n">
-        <v>1760.328909494509</v>
+        <v>1458.288960155805</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.328909494509</v>
+        <v>2019.994852644335</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1023.092629327345</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1023.092629327345</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>744.0229648362191</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>505.6791026959025</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>280.9434040846672</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976085</v>
+        <v>2128.160977929772</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F41" t="n">
         <v>899.2322418529996</v>
@@ -7411,10 +7411,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>3360.349242692484</v>
+        <v>2939.318830646172</v>
       </c>
       <c r="Y41" t="n">
-        <v>2959.412569640574</v>
+        <v>2538.382157594262</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>111.2881081840224</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>567.0943644493211</v>
+        <v>537.5348450866911</v>
       </c>
       <c r="L42" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
         <v>93.2436976906228</v>
@@ -7599,22 +7599,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1551.571460124744</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>1268.773312670868</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>994.8875676103903</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>715.8179031192647</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>477.4740409789481</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y43" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D44" t="n">
-        <v>1287.649206862142</v>
+        <v>1671.409507726974</v>
       </c>
       <c r="E44" t="n">
-        <v>873.3089913790386</v>
+        <v>1257.069292243871</v>
       </c>
       <c r="F44" t="n">
-        <v>452.2785793327262</v>
+        <v>836.0388801975582</v>
       </c>
       <c r="G44" t="n">
-        <v>404.1521950629048</v>
+        <v>427.3105960903904</v>
       </c>
       <c r="H44" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7687,13 +7687,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>1198.623017005979</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.623017005979</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N45" t="n">
-        <v>1198.623017005979</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O45" t="n">
-        <v>1198.623017005979</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>136.1097701603972</v>
+        <v>431.5874612033629</v>
       </c>
       <c r="C46" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D46" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E46" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F46" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G46" t="n">
         <v>93.2436976906228</v>
@@ -7836,22 +7836,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>1065.958701797119</v>
+        <v>898.3568320885329</v>
       </c>
       <c r="W46" t="n">
-        <v>786.8890373059935</v>
+        <v>619.2871675974072</v>
       </c>
       <c r="X46" t="n">
-        <v>548.5451751656769</v>
+        <v>619.2871675974072</v>
       </c>
       <c r="Y46" t="n">
-        <v>323.8094765544416</v>
+        <v>619.2871675974072</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>555.489182064824</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958086</v>
+        <v>337.4068669225207</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808745</v>
+        <v>501.1513772538822</v>
       </c>
       <c r="M3" t="n">
-        <v>68.26591628750379</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>549.1401736751963</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958086</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8300,19 +8300,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
         <v>63.89502594283636</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8458,25 +8458,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328703</v>
+        <v>272.0504334731806</v>
       </c>
       <c r="M8" t="n">
-        <v>553.2940084590247</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>554.1634861730674</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>73.48479305079361</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>531.0119939709983</v>
       </c>
       <c r="L11" t="n">
-        <v>555.489182064824</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
@@ -8777,22 +8777,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637754</v>
+        <v>329.5449236222969</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P12" t="n">
-        <v>555.2297277821212</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L14" t="n">
-        <v>596.4554908421622</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>557.0846165901664</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M15" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,16 +9169,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328703</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O17" t="n">
-        <v>594.1598684051006</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
@@ -9245,28 +9245,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>529.1545888121299</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>590.1064824525346</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O20" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
-        <v>93.64936328088416</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M21" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>555.2297277821212</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>632.7318453389136</v>
@@ -9898,7 +9898,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>389.300405673794</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L32" t="n">
         <v>815.2746908024792</v>
@@ -10433,19 +10433,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>178.5117997957786</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10588,7 +10588,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L35" t="n">
         <v>815.2746908024792</v>
@@ -10606,7 +10606,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10667,28 +10667,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>418.5520878360603</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>177.6401345621998</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>69.59591606606023</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>504.6047195483208</v>
       </c>
       <c r="L42" t="n">
         <v>723.8803540323523</v>
@@ -11162,7 +11162,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>517.4884687476416</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>174.1409094511112</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,19 +22549,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>17.77593127593013</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>342.0182906175189</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22597,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -22615,7 +22615,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22707,25 +22707,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>70.43669735679198</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="5">
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.17187710393767</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22837,10 +22837,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>67.71643444106977</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -22852,7 +22852,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22995,22 +22995,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -23029,16 +23029,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>293.271260649267</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23077,10 +23077,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>52.31692757539486</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23181,25 +23181,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,25 +23229,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>102.9647224806632</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23311,19 +23311,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>140.3061999993591</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>395.5393339497933</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17.7759312759303</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>229.4868524156533</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -23557,10 +23557,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>2.689873088829984</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23785,10 +23785,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>78.5131975870566</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23797,10 +23797,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.893130557884632</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>358.4154331328398</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>131.483596276319</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>55.30091438435237</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>193.4209809967736</v>
       </c>
     </row>
     <row r="23">
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>356.9958808389731</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.1745055375995</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>102.5059940158881</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.35263051300494</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>193.4209809967733</v>
       </c>
     </row>
     <row r="29">
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>88.57144222862036</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>96.60443348087388</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>308.5558614412299</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>55.35263051300471</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>187.994239071986</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>4.8745592198064</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25365,10 +25365,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25393,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>36.46078111520814</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>25.66401796922133</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>192.5167938583583</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>25.66401796922162</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25839,7 +25839,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>166.7928287882034</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="44">
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>62.56142803888687</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>126.945026968824</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26037,7 +26037,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26076,22 +26076,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>71.22740062156456</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>532869.151523688</v>
+        <v>532869.1515236879</v>
       </c>
     </row>
     <row r="3">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>811261.0815284266</v>
+        <v>811261.081528427</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>811261.0815284266</v>
+        <v>811261.081528427</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>811261.0815284268</v>
+        <v>811261.081528427</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>811261.0815284268</v>
+        <v>811261.081528427</v>
       </c>
     </row>
     <row r="15">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="C2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="D2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="E2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="F2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="G2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="H2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="I2" t="n">
+        <v>217236.5006513203</v>
+      </c>
+      <c r="J2" t="n">
         <v>217236.5006513204</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>217236.5006513204</v>
+      </c>
+      <c r="L2" t="n">
         <v>217236.5006513203</v>
-      </c>
-      <c r="K2" t="n">
-        <v>217236.5006513203</v>
-      </c>
-      <c r="L2" t="n">
-        <v>217236.5006513204</v>
       </c>
       <c r="M2" t="n">
         <v>217236.5006513203</v>
@@ -26352,7 +26352,7 @@
         <v>217236.5006513203</v>
       </c>
       <c r="O2" t="n">
-        <v>217236.5006513204</v>
+        <v>217236.5006513203</v>
       </c>
       <c r="P2" t="n">
         <v>217236.5006513204</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>171115.5499734838</v>
+        <v>171115.5499734837</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-107721.0817763751</v>
+        <v>-108398.6106357693</v>
       </c>
       <c r="C6" t="n">
-        <v>67234.42811673893</v>
+        <v>66556.8992573448</v>
       </c>
       <c r="D6" t="n">
-        <v>67234.42811673893</v>
+        <v>66556.89925734475</v>
       </c>
       <c r="E6" t="n">
-        <v>100862.0281167389</v>
+        <v>100184.4992573448</v>
       </c>
       <c r="F6" t="n">
-        <v>100862.0281167389</v>
+        <v>100184.4992573448</v>
       </c>
       <c r="G6" t="n">
-        <v>100862.0281167389</v>
+        <v>100184.4992573448</v>
       </c>
       <c r="H6" t="n">
-        <v>100862.0281167389</v>
+        <v>100184.4992573447</v>
       </c>
       <c r="I6" t="n">
-        <v>-40209.63330410069</v>
+        <v>-40390.21389674985</v>
       </c>
       <c r="J6" t="n">
-        <v>-5688.884136511915</v>
+        <v>-5869.464729161023</v>
       </c>
       <c r="K6" t="n">
-        <v>130905.916669383</v>
+        <v>130725.336076734</v>
       </c>
       <c r="L6" t="n">
-        <v>130905.9166693831</v>
+        <v>130725.3360767339</v>
       </c>
       <c r="M6" t="n">
-        <v>130905.916669383</v>
+        <v>130725.3360767339</v>
       </c>
       <c r="N6" t="n">
-        <v>130905.916669383</v>
+        <v>130725.3360767339</v>
       </c>
       <c r="O6" t="n">
-        <v>130905.916669383</v>
+        <v>130725.3360767339</v>
       </c>
       <c r="P6" t="n">
-        <v>130905.916669383</v>
+        <v>130725.3360767339</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
         <v>1165.546221132785</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700254</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="M3" t="n">
-        <v>10.70163254908636</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35020,19 +35020,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
         <v>10.70163254908636</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35178,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700254</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="M8" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="L11" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700254</v>
+        <v>276.3515302285469</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P12" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L14" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>500.9700927793174</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700254</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O17" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>474.8949538093261</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
         <v>543.5954556656965</v>
@@ -36618,7 +36618,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>333.1858818629449</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L32" t="n">
         <v>719.7892927396343</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L35" t="n">
         <v>719.7892927396343</v>
@@ -37326,7 +37326,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37387,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>360.9878040976428</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>120.947516057361</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>18.22667726606021</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>448.7789367637054</v>
       </c>
       <c r="L42" t="n">
         <v>667.7658302215033</v>
@@ -37882,7 +37882,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>461.3739449367926</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
